--- a/doc/clock.xlsx
+++ b/doc/clock.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="2"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>VDD2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>VDD</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -389,14 +385,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>7SEGx2_20200219OK.gp6</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>up BCD</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>a</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -529,14 +517,6 @@
     <rPh sb="0" eb="2">
       <t>ブンカイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>r | s</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>11pcs</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -554,15 +534,35 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>OSC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#BC#D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#A#B#C</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dig4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>dig1</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dig1</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dig4</t>
+    <t>dig2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -570,43 +570,157 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>dig2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dig4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dig3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>dig2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>OSC</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>SW</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#BC#D</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>#A#B#C</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>I,PU1M</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IO,PU100k</t>
+    <t>IO,PU10k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I,PU10k</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VDD2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>VDD1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Common Cathode (1で点灯)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#A#B#CD | B#C#D)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(B#CD | BC#D)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#BC#D)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#A#B#CD | B#C#D | BCD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#B#D | C#D</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#A#B#CD | #BC)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#A#B#C | BCD)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(r | s)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(#a | q)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(r | #BC)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>#(p | q)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>r | s</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>2bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3bit</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>required LUT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>7SEG decode plan</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SLG46826G</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>配線</t>
+    <rPh sb="0" eb="2">
+      <t>ハイセン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>端子名</t>
+    <rPh sb="0" eb="2">
+      <t>タンシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能名</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IO</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SCL</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SDA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>tact sw</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>IO設定</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -888,7 +1002,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -964,9 +1078,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1042,122 +1153,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF002060"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1257,14 +1317,14 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>119902</xdr:colOff>
+      <xdr:row>44</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>401222</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:colOff>76251</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>28399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1282,8 +1342,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="6505575"/>
-          <a:ext cx="3876190" cy="1409524"/>
+          <a:off x="276784" y="7221631"/>
+          <a:ext cx="3889614" cy="1379268"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,16 +1354,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>31938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>56833</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>28423</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>123039</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1320,8 +1380,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4867275" y="6696075"/>
-          <a:ext cx="2533333" cy="1219048"/>
+          <a:off x="4233022" y="7427820"/>
+          <a:ext cx="2322419" cy="1099630"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M52"/>
+  <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1631,7 +1691,7 @@
     <col min="1" max="1" width="2" customWidth="1"/>
     <col min="2" max="2" width="8.375" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="18" customWidth="1"/>
-    <col min="4" max="4" width="10" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="18" customWidth="1"/>
     <col min="5" max="5" width="6.125" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.625" customWidth="1"/>
@@ -1639,805 +1699,1277 @@
     <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" customWidth="1"/>
     <col min="11" max="11" width="7.625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="18" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.25" style="18" customWidth="1"/>
     <col min="14" max="15" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="35" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3">
-        <v>20</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="32"/>
-      <c r="L4" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="L5" s="20" t="s">
-        <v>141</v>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="N5" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>83</v>
+        <v>28</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="6">
-        <v>3</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="7"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7">
-        <v>18</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="33" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+      <c r="N6" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>83</v>
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F7" s="6">
-        <v>4</v>
-      </c>
-      <c r="G7" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7">
-        <v>17</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>82</v>
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>91</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>47</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F8" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>82</v>
+        <v>7</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>46</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>145</v>
+        <v>57</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>76</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F9" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
-        <v>15</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K9" s="28" t="s">
-        <v>74</v>
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>81</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="29"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>136</v>
+      </c>
       <c r="E10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="7">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>74</v>
+        <v>12</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>73</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="49" t="s">
-        <v>78</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
-        <v>13</v>
-      </c>
-      <c r="J11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="28"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B12" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>20</v>
-      </c>
       <c r="F12" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
-      <c r="I12" s="12">
+      <c r="I12" s="7">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12">
         <v>12</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="28"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C13" s="22" t="s">
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17" t="s">
+      <c r="D14" s="29"/>
+      <c r="E14" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>10</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
         <v>11</v>
       </c>
-      <c r="J13" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K13" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B16" s="35" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B18" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E18" s="1" t="s">
+      <c r="J14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F18" s="2">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="6">
-        <v>2</v>
-      </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7">
-        <v>19</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K19" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B20" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>6</v>
-      </c>
       <c r="F20" s="6">
-        <v>3</v>
-      </c>
-      <c r="G20" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="K20" s="68"/>
+      <c r="L20" s="69" t="s">
+        <v>0</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
-        <v>132</v>
+        <v>61</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F21" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="33" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>80</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="M21" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="27" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B22" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>80</v>
-      </c>
       <c r="E22" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F22" s="6">
-        <v>5</v>
-      </c>
-      <c r="G22" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G22" s="9"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
-        <v>16</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>73</v>
+        <v>18</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>135</v>
+        <v>53</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>37</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>73</v>
+        <v>132</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F23" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
-        <v>15</v>
-      </c>
-      <c r="J23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>73</v>
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C24" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="29"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>79</v>
+      </c>
       <c r="E24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="7">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
-        <v>14</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K24" s="28" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>72</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.15">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="28" t="s">
-        <v>73</v>
+      <c r="D25" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="7">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
-        <v>13</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K25" s="28"/>
-      <c r="L25" s="20"/>
+        <v>15</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>52</v>
+      </c>
       <c r="M25" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>20</v>
+        <v>139</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F26" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
-      <c r="I26" s="12">
+      <c r="I26" s="7">
+        <v>14</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>13</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12">
         <v>12</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="K26" s="28"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C27" s="22" t="s">
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="17" t="s">
+      <c r="D29" s="29"/>
+      <c r="E29" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F29" s="15">
         <v>10</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16">
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
         <v>11</v>
       </c>
-      <c r="J27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="L27" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="C30" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="K30" s="25"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G31" s="51">
+      <c r="J29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B32" s="62"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="64"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="61"/>
+      <c r="C33" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="67"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="61"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="67"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="61"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K35" s="66"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="67"/>
+    </row>
+    <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="61"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="57">
         <v>8</v>
       </c>
-      <c r="H31" s="52"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="E32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="18">
-        <v>1</v>
-      </c>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
-      <c r="I32">
-        <v>12</v>
-      </c>
-      <c r="J32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="5:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E33" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="18">
-        <v>2</v>
-      </c>
-      <c r="G33" s="53">
-        <v>8</v>
-      </c>
-      <c r="H33" s="54"/>
-      <c r="I33">
-        <v>11</v>
-      </c>
-      <c r="J33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E34" s="18" t="s">
+      <c r="H36" s="58"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="67"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="61"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F34" s="18">
-        <v>3</v>
-      </c>
-      <c r="G34" s="53"/>
-      <c r="H34" s="54"/>
-      <c r="I34">
-        <v>10</v>
-      </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="5:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E35" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="18">
-        <v>4</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" s="54"/>
-      <c r="I35">
-        <v>9</v>
-      </c>
-      <c r="J35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="5:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E36" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F36" s="18">
-        <v>5</v>
-      </c>
-      <c r="G36" s="53">
-        <v>8</v>
-      </c>
-      <c r="H36" s="54"/>
-      <c r="I36">
-        <v>8</v>
-      </c>
-      <c r="J36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="E37" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="18">
-        <v>6</v>
+      <c r="F37" s="8">
+        <v>1</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="54"/>
-      <c r="I37">
-        <v>7</v>
-      </c>
-      <c r="J37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="5:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I37" s="9">
+        <v>12</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="67"/>
+    </row>
+    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="61"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
       <c r="G38" s="53">
         <v>8</v>
       </c>
       <c r="H38" s="54"/>
-    </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.15">
-      <c r="G39" s="55"/>
-      <c r="H39" s="56"/>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C50" s="25" t="s">
+      <c r="I38" s="9">
+        <v>11</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="67"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="61"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+      <c r="G39" s="53"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="9">
+        <v>10</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="67"/>
+    </row>
+    <row r="40" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="61"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" s="54"/>
+      <c r="I40" s="9">
+        <v>9</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="67"/>
+    </row>
+    <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="61"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5</v>
+      </c>
+      <c r="G41" s="53">
+        <v>8</v>
+      </c>
+      <c r="H41" s="54"/>
+      <c r="I41" s="9">
+        <v>8</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="67"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42" s="61"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="8">
+        <v>6</v>
+      </c>
+      <c r="G42" s="53"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="9">
+        <v>7</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="67"/>
+    </row>
+    <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="61"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="53">
+        <v>8</v>
+      </c>
+      <c r="H43" s="54"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="67"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="61"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="67"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="61"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="67"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="61"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="67"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="61"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="67"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="61"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="67"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="61"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="67"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="61"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="67"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="61"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="67"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="61"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="67"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="61"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="67"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" s="61"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="67"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="61"/>
+      <c r="C55" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="67"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="61"/>
+      <c r="C56" s="66" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C51" s="25" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="67"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="61"/>
+      <c r="C57" s="66" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C52" s="25" t="s">
-        <v>89</v>
-      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="67"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="59"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="60"/>
     </row>
   </sheetData>
   <sortState ref="L5:M9">
     <sortCondition descending="1" ref="L5"/>
   </sortState>
   <mergeCells count="5">
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="G40:H40"/>
     <mergeCell ref="G36:H37"/>
     <mergeCell ref="G38:H39"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G31:H32"/>
-    <mergeCell ref="G33:H34"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2448,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Z63"/>
+  <dimension ref="B2:AE63"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA54" sqref="AA54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2467,67 +2999,81 @@
     <col min="24" max="24" width="23.875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="8.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="6.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="2.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.125" customWidth="1"/>
+    <col min="31" max="31" width="6.25" style="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="X2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="R3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="T3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="U3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="W3" s="43"/>
+      <c r="X3" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="Z3" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="AE3" s="43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
         <v>93</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J4" t="s">
         <v>94</v>
       </c>
-      <c r="X2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="R3" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="S3" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="T3" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" s="44"/>
-      <c r="X3" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y3" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="H4" t="s">
+      <c r="K4" t="s">
         <v>95</v>
       </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>96</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>97</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>98</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>99</v>
-      </c>
-      <c r="M4" t="s">
-        <v>100</v>
-      </c>
-      <c r="N4" t="s">
-        <v>101</v>
-      </c>
-      <c r="O4" t="s">
-        <v>102</v>
       </c>
       <c r="R4" s="18">
         <v>8</v>
@@ -2541,36 +3087,52 @@
       <c r="U4" s="18">
         <v>1</v>
       </c>
-      <c r="W4" s="45" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y4" s="39" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z4" s="57" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="W5" s="46"/>
+      <c r="W4" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="X4" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB4" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD4" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="AE4" s="50" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="W5" s="45"/>
       <c r="X5" s="9"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="58"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="51"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="51"/>
+    </row>
+    <row r="6" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="36">
-        <v>1</v>
-      </c>
-      <c r="E6" s="36">
+      <c r="C6" s="35">
+        <v>1</v>
+      </c>
+      <c r="E6" s="35">
         <v>1</v>
       </c>
       <c r="H6">
@@ -2617,79 +3179,123 @@
       <c r="U6" s="18">
         <v>0</v>
       </c>
-      <c r="W6" s="46" t="s">
-        <v>96</v>
+      <c r="W6" s="45" t="s">
+        <v>93</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="36"/>
-      <c r="W7" s="46"/>
+        <v>105</v>
+      </c>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB6" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D7" s="35"/>
+      <c r="W7" s="45"/>
       <c r="X7" s="9"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="58"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C8" s="36">
-        <v>1</v>
-      </c>
-      <c r="E8" s="36">
-        <v>1</v>
-      </c>
-      <c r="W8" s="46" t="s">
-        <v>97</v>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="51"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="51"/>
+    </row>
+    <row r="8" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C8" s="35">
+        <v>1</v>
+      </c>
+      <c r="E8" s="35">
+        <v>1</v>
+      </c>
+      <c r="W8" s="45" t="s">
+        <v>94</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="36">
-        <v>1</v>
-      </c>
-      <c r="F9" s="36"/>
-      <c r="W9" s="46"/>
+        <v>129</v>
+      </c>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB8" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC8" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="39"/>
+      <c r="AE8" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D9" s="35">
+        <v>1</v>
+      </c>
+      <c r="F9" s="35"/>
+      <c r="W9" s="45"/>
       <c r="X9" s="9"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="58"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="W10" s="46" t="s">
-        <v>98</v>
+      <c r="Y9" s="39"/>
+      <c r="Z9" s="51"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="39"/>
+      <c r="AE9" s="51"/>
+    </row>
+    <row r="10" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="W10" s="45" t="s">
+        <v>95</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y10" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="Z10" s="58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="36"/>
-      <c r="W11" s="46"/>
+        <v>106</v>
+      </c>
+      <c r="Y10" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB10" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="AD10" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="AE10" s="51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D11" s="35"/>
+      <c r="W11" s="45"/>
       <c r="X11" s="9"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="58"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="51"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="39"/>
+      <c r="AE11" s="51"/>
+    </row>
+    <row r="12" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="E12" s="36">
+      <c r="C12" s="35"/>
+      <c r="E12" s="35">
         <v>1</v>
       </c>
       <c r="H12">
@@ -2736,79 +3342,125 @@
       <c r="U12" s="18">
         <v>1</v>
       </c>
-      <c r="W12" s="46" t="s">
-        <v>99</v>
+      <c r="W12" s="45" t="s">
+        <v>96</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="36"/>
-      <c r="W13" s="46"/>
+        <v>107</v>
+      </c>
+      <c r="Y12" s="39"/>
+      <c r="Z12" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB12" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD12" s="39"/>
+      <c r="AE12" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D13" s="35"/>
+      <c r="W13" s="45"/>
       <c r="X13" s="9"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="58"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C14" s="36"/>
-      <c r="E14" s="36">
-        <v>1</v>
-      </c>
-      <c r="W14" s="46" t="s">
-        <v>100</v>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="51"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="51"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C14" s="35"/>
+      <c r="E14" s="35">
+        <v>1</v>
+      </c>
+      <c r="W14" s="45" t="s">
+        <v>97</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y14" s="40" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z14" s="58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="W15" s="46"/>
+        <v>108</v>
+      </c>
+      <c r="Y14" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z14" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB14" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="AD14" s="39" t="s">
+        <v>151</v>
+      </c>
+      <c r="AE14" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="W15" s="45"/>
       <c r="X15" s="9"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="58"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="W16" s="46" t="s">
-        <v>101</v>
+      <c r="Y15" s="39"/>
+      <c r="Z15" s="51"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="39"/>
+      <c r="AE15" s="51"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="W16" s="45" t="s">
+        <v>98</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="Y16" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z16" s="58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D17" s="36">
+        <v>109</v>
+      </c>
+      <c r="Y16" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z16" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB16" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD16" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="AE16" s="51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="35">
         <v>1</v>
       </c>
       <c r="W17" s="46"/>
-      <c r="X17" s="9"/>
+      <c r="X17" s="37"/>
       <c r="Y17" s="40"/>
-      <c r="Z17" s="58"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Z17" s="52"/>
+      <c r="AB17" s="46"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="40"/>
+      <c r="AE17" s="52"/>
+    </row>
+    <row r="18" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="E18" s="36">
+      <c r="C18" s="35"/>
+      <c r="E18" s="35">
         <v>1</v>
       </c>
       <c r="H18">
@@ -2855,73 +3507,121 @@
       <c r="U18" s="18">
         <v>0</v>
       </c>
-      <c r="W18" s="46"/>
+      <c r="W18" s="45" t="s">
+        <v>110</v>
+      </c>
       <c r="X18" s="9"/>
-      <c r="Y18" s="40"/>
-      <c r="Z18" s="58"/>
-    </row>
-    <row r="19" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="36">
-        <v>1</v>
-      </c>
-      <c r="W19" s="46"/>
+      <c r="Y18" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z18" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB18" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE18" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="35">
+        <v>1</v>
+      </c>
+      <c r="W19" s="45"/>
       <c r="X19" s="9"/>
-      <c r="Y19" s="40"/>
-      <c r="Z19" s="58"/>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C20" s="36">
-        <v>1</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="W20" s="46" t="s">
-        <v>113</v>
+      <c r="Y19" s="39"/>
+      <c r="Z19" s="51"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="39"/>
+      <c r="AE19" s="51"/>
+    </row>
+    <row r="20" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C20" s="35">
+        <v>1</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="W20" s="45" t="s">
+        <v>111</v>
       </c>
       <c r="X20" s="9"/>
-      <c r="Y20" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z20" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="36">
-        <v>1</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="W21" s="46"/>
+      <c r="Y20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z20" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB20" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE20" s="51" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="35">
+        <v>1</v>
+      </c>
+      <c r="F21" s="35"/>
+      <c r="W21" s="45"/>
       <c r="X21" s="9"/>
-      <c r="Y21" s="40"/>
-      <c r="Z21" s="58"/>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="W22" s="46" t="s">
-        <v>114</v>
+      <c r="Y21" s="39"/>
+      <c r="Z21" s="51"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="39"/>
+      <c r="AE21" s="51"/>
+    </row>
+    <row r="22" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="W22" s="45" t="s">
+        <v>115</v>
       </c>
       <c r="X22" s="9"/>
-      <c r="Y22" s="40" t="s">
+      <c r="Y22" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z22" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB22" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="Z22" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D23" s="36">
-        <v>1</v>
-      </c>
-      <c r="W23" s="46"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="AE22" s="51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="35">
+        <v>1</v>
+      </c>
+      <c r="W23" s="45"/>
       <c r="X23" s="9"/>
-      <c r="Y23" s="40"/>
-      <c r="Z23" s="58"/>
-    </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="51"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="39"/>
+      <c r="AE23" s="51"/>
+    </row>
+    <row r="24" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>3</v>
       </c>
-      <c r="C24" s="36"/>
-      <c r="E24" s="36">
+      <c r="C24" s="35"/>
+      <c r="E24" s="35">
         <v>1</v>
       </c>
       <c r="H24">
@@ -2968,71 +3668,112 @@
       <c r="U24" s="18">
         <v>1</v>
       </c>
-      <c r="W24" s="46" t="s">
-        <v>118</v>
+      <c r="W24" s="45" t="s">
+        <v>122</v>
       </c>
       <c r="X24" s="9"/>
-      <c r="Y24" s="40" t="s">
+      <c r="Y24" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z24" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE24" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="Z24" s="58" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D25" s="36">
+    </row>
+    <row r="25" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="35">
         <v>1</v>
       </c>
       <c r="W25" s="46"/>
-      <c r="X25" s="9"/>
+      <c r="X25" s="37"/>
       <c r="Y25" s="40"/>
-      <c r="Z25" s="58"/>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C26" s="36"/>
-      <c r="E26" s="36">
-        <v>1</v>
-      </c>
-      <c r="W26" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z26" s="58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D27" s="36">
-        <v>1</v>
-      </c>
-      <c r="F27" s="36"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="59"/>
-    </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="W28" s="47"/>
-      <c r="X28" s="38"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="59" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="29" spans="2:26" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D29" s="36"/>
-    </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.15">
+      <c r="Z25" s="52"/>
+      <c r="AB25" s="46"/>
+      <c r="AC25" s="37"/>
+      <c r="AD25" s="40"/>
+      <c r="AE25" s="52"/>
+    </row>
+    <row r="26" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C26" s="35"/>
+      <c r="E26" s="35">
+        <v>1</v>
+      </c>
+      <c r="W26" s="62"/>
+      <c r="X26" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y26" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z26" s="44">
+        <v>4</v>
+      </c>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD26" s="38" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE26" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D27" s="35">
+        <v>1</v>
+      </c>
+      <c r="F27" s="35"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="45"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="61"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="45"/>
+    </row>
+    <row r="28" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="W28" s="59"/>
+      <c r="X28" s="37"/>
+      <c r="Y28" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z28" s="46">
+        <v>7</v>
+      </c>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="37"/>
+      <c r="AD28" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE28" s="46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>4</v>
       </c>
-      <c r="C30" s="36">
-        <v>1</v>
-      </c>
-      <c r="E30" s="36">
+      <c r="C30" s="35">
+        <v>1</v>
+      </c>
+      <c r="E30" s="35">
         <v>1</v>
       </c>
       <c r="H30">
@@ -3080,23 +3821,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D31" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.15">
-      <c r="C32" s="36"/>
-      <c r="E32" s="36">
+    <row r="31" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D31" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" x14ac:dyDescent="0.15">
+      <c r="C32" s="35"/>
+      <c r="E32" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="35"/>
+      <c r="F33" s="35"/>
     </row>
     <row r="35" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D35" s="36">
+      <c r="D35" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3104,10 +3845,10 @@
       <c r="B36">
         <v>5</v>
       </c>
-      <c r="C36" s="36">
-        <v>1</v>
-      </c>
-      <c r="E36" s="36"/>
+      <c r="C36" s="35">
+        <v>1</v>
+      </c>
+      <c r="E36" s="35"/>
       <c r="H36">
         <f>D35</f>
         <v>1</v>
@@ -3154,24 +3895,24 @@
       </c>
     </row>
     <row r="37" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D37" s="36">
+      <c r="D37" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C38" s="36"/>
-      <c r="E38" s="36">
+      <c r="C38" s="35"/>
+      <c r="E38" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D39" s="36">
-        <v>1</v>
-      </c>
-      <c r="F39" s="36"/>
+      <c r="D39" s="35">
+        <v>1</v>
+      </c>
+      <c r="F39" s="35"/>
     </row>
     <row r="41" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D41" s="36">
+      <c r="D41" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3179,10 +3920,10 @@
       <c r="B42">
         <v>6</v>
       </c>
-      <c r="C42" s="36">
-        <v>1</v>
-      </c>
-      <c r="E42" s="36"/>
+      <c r="C42" s="35">
+        <v>1</v>
+      </c>
+      <c r="E42" s="35"/>
       <c r="H42">
         <f>D41</f>
         <v>1</v>
@@ -3229,26 +3970,26 @@
       </c>
     </row>
     <row r="43" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D43" s="36">
+      <c r="D43" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C44" s="36">
-        <v>1</v>
-      </c>
-      <c r="E44" s="36">
+      <c r="C44" s="35">
+        <v>1</v>
+      </c>
+      <c r="E44" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D45" s="36">
-        <v>1</v>
-      </c>
-      <c r="F45" s="36"/>
+      <c r="D45" s="35">
+        <v>1</v>
+      </c>
+      <c r="F45" s="35"/>
     </row>
     <row r="47" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D47" s="36">
+      <c r="D47" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3256,10 +3997,10 @@
       <c r="B48">
         <v>7</v>
       </c>
-      <c r="C48" s="36">
-        <v>1</v>
-      </c>
-      <c r="E48" s="36">
+      <c r="C48" s="35">
+        <v>1</v>
+      </c>
+      <c r="E48" s="35">
         <v>1</v>
       </c>
       <c r="H48">
@@ -3308,20 +4049,20 @@
       </c>
     </row>
     <row r="49" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D49" s="36"/>
+      <c r="D49" s="35"/>
     </row>
     <row r="50" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C50" s="36"/>
-      <c r="E50" s="36">
+      <c r="C50" s="35"/>
+      <c r="E50" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D51" s="36"/>
-      <c r="F51" s="36"/>
+      <c r="D51" s="35"/>
+      <c r="F51" s="35"/>
     </row>
     <row r="53" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D53" s="36">
+      <c r="D53" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3329,10 +4070,10 @@
       <c r="B54">
         <v>8</v>
       </c>
-      <c r="C54" s="36">
-        <v>1</v>
-      </c>
-      <c r="E54" s="36">
+      <c r="C54" s="35">
+        <v>1</v>
+      </c>
+      <c r="E54" s="35">
         <v>1</v>
       </c>
       <c r="H54">
@@ -3381,26 +4122,26 @@
       </c>
     </row>
     <row r="55" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D55" s="36">
+      <c r="D55" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C56" s="36">
-        <v>1</v>
-      </c>
-      <c r="E56" s="36">
+      <c r="C56" s="35">
+        <v>1</v>
+      </c>
+      <c r="E56" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D57" s="36">
-        <v>1</v>
-      </c>
-      <c r="F57" s="36"/>
+      <c r="D57" s="35">
+        <v>1</v>
+      </c>
+      <c r="F57" s="35"/>
     </row>
     <row r="59" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D59" s="36">
+      <c r="D59" s="35">
         <v>1</v>
       </c>
     </row>
@@ -3408,10 +4149,10 @@
       <c r="B60">
         <v>9</v>
       </c>
-      <c r="C60" s="36">
-        <v>1</v>
-      </c>
-      <c r="E60" s="36">
+      <c r="C60" s="35">
+        <v>1</v>
+      </c>
+      <c r="E60" s="35">
         <v>1</v>
       </c>
       <c r="H60">
@@ -3460,81 +4201,81 @@
       </c>
     </row>
     <row r="61" spans="2:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D61" s="36">
+      <c r="D61" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:21" x14ac:dyDescent="0.15">
-      <c r="C62" s="36"/>
-      <c r="E62" s="36">
+      <c r="C62" s="35"/>
+      <c r="E62" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:21" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D63" s="36">
-        <v>1</v>
-      </c>
-      <c r="F63" s="36"/>
+      <c r="D63" s="35">
+        <v>1</v>
+      </c>
+      <c r="F63" s="35"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="C4:F10 C65:F1048576">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:F16">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C59:F64">
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:F22">
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23:F28">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="21" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:F34">
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35:F40">
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:F46">
-    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C47:F52">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:F58">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:U60">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R59:U64">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/doc/clock.xlsx
+++ b/doc/clock.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="16155" windowHeight="8070"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="16155" windowHeight="8070" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="pin" sheetId="1" r:id="rId1"/>
-    <sheet name="decode" sheetId="4" r:id="rId2"/>
+    <sheet name="5643AR-30CD3" sheetId="1" r:id="rId1"/>
+    <sheet name="OSL40391-LX" sheetId="5" r:id="rId2"/>
+    <sheet name="decode" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="189">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="2"/>
@@ -126,10 +127,6 @@
   </si>
   <si>
     <t>C13</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>5643AR-30CD3</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -721,6 +718,71 @@
     <rPh sb="2" eb="4">
       <t>セッテイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>5643AR-30CD3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>dig4</t>
+  </si>
+  <si>
+    <t>digC</t>
+  </si>
+  <si>
+    <t>digC</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GND</t>
+  </si>
+  <si>
+    <t>dig1</t>
+  </si>
+  <si>
+    <t>dig2</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>dig3</t>
+  </si>
+  <si>
+    <t>SCL</t>
+  </si>
+  <si>
+    <t>SDA</t>
+  </si>
+  <si>
+    <t>A24</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>OSL40391-LX (Common Cathode type)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>clock_cnf1a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>clock_cnf2a</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1002,7 +1064,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1162,6 +1224,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1180,38 +1275,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1382,6 +1447,87 @@
         <a:xfrm>
           <a:off x="4233022" y="7427820"/>
           <a:ext cx="2322419" cy="1099630"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258509</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449008</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4348656" y="7956176"/>
+          <a:ext cx="2353234" cy="974912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>3106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156125</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="224117" y="7903253"/>
+          <a:ext cx="4022155" cy="1173512"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1682,8 +1828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1706,56 +1852,56 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B2" s="34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E4" s="18" t="s">
+      <c r="I4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="18" t="s">
-        <v>161</v>
-      </c>
       <c r="M4" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>2</v>
@@ -1776,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N5" s="44">
         <v>1</v>
@@ -1784,13 +1930,13 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B6" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>4</v>
@@ -1807,13 +1953,13 @@
         <v>3</v>
       </c>
       <c r="K6" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N6" s="46">
         <v>2</v>
@@ -1821,13 +1967,13 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>6</v>
@@ -1844,24 +1990,24 @@
         <v>5</v>
       </c>
       <c r="K7" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>8</v>
@@ -1878,24 +2024,24 @@
         <v>7</v>
       </c>
       <c r="K8" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>11</v>
@@ -1912,24 +2058,24 @@
         <v>10</v>
       </c>
       <c r="K9" s="33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>13</v>
@@ -1946,21 +2092,21 @@
         <v>12</v>
       </c>
       <c r="K10" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="28"/>
       <c r="E11" s="8" t="s">
@@ -1978,24 +2124,24 @@
         <v>14</v>
       </c>
       <c r="K11" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L11" s="20" t="s">
         <v>25</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>59</v>
-      </c>
       <c r="D12" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>17</v>
@@ -2012,24 +2158,24 @@
         <v>16</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D13" s="48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>19</v>
@@ -2046,18 +2192,18 @@
         <v>18</v>
       </c>
       <c r="K13" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>9</v>
@@ -2078,66 +2224,66 @@
         <v>20</v>
       </c>
       <c r="K14" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L14" s="23" t="s">
         <v>22</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B17" s="34" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="F19" s="17" t="s">
         <v>161</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37"/>
       <c r="I19" s="17" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J19" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="K19" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="17" t="s">
-        <v>161</v>
-      </c>
       <c r="M19" s="17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B20" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>2</v>
@@ -2153,23 +2299,23 @@
       <c r="J20" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="K20" s="68"/>
-      <c r="L20" s="69" t="s">
+      <c r="K20" s="62"/>
+      <c r="L20" s="63" t="s">
         <v>0</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B21" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>4</v>
@@ -2186,24 +2332,24 @@
         <v>3</v>
       </c>
       <c r="K21" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="18" t="s">
         <v>83</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>6</v>
@@ -2220,24 +2366,24 @@
         <v>5</v>
       </c>
       <c r="K22" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>8</v>
@@ -2254,24 +2400,24 @@
         <v>7</v>
       </c>
       <c r="K23" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>11</v>
@@ -2288,24 +2434,24 @@
         <v>10</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>13</v>
@@ -2322,21 +2468,21 @@
         <v>12</v>
       </c>
       <c r="K25" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D26" s="28"/>
       <c r="E26" s="8" t="s">
@@ -2354,27 +2500,27 @@
         <v>14</v>
       </c>
       <c r="K26" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>17</v>
@@ -2391,24 +2537,24 @@
         <v>16</v>
       </c>
       <c r="K27" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L27" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="L27" s="20" t="s">
-        <v>166</v>
-      </c>
       <c r="M27" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="13" t="s">
         <v>19</v>
@@ -2425,18 +2571,18 @@
         <v>18</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>9</v>
@@ -2457,17 +2603,17 @@
         <v>20</v>
       </c>
       <c r="K29" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L29" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="62"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2480,258 +2626,258 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="36"/>
-      <c r="O32" s="64"/>
+      <c r="O32" s="58"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="61"/>
-      <c r="C33" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="66"/>
-      <c r="K33" s="66"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="K33" s="60"/>
       <c r="L33" s="8"/>
       <c r="M33" s="8"/>
       <c r="N33" s="9"/>
-      <c r="O33" s="67"/>
+      <c r="O33" s="61"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="61"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="K34" s="66"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="K34" s="60"/>
       <c r="L34" s="8"/>
       <c r="M34" s="8"/>
       <c r="N34" s="9"/>
-      <c r="O34" s="67"/>
+      <c r="O34" s="61"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="61"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="66"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
       <c r="I35" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K35" s="66"/>
+        <v>158</v>
+      </c>
+      <c r="K35" s="60"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="9"/>
-      <c r="O35" s="67"/>
+      <c r="O35" s="61"/>
     </row>
     <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="61"/>
+      <c r="B36" s="55"/>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="57">
+      <c r="G36" s="68">
         <v>8</v>
       </c>
-      <c r="H36" s="58"/>
+      <c r="H36" s="69"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
-      <c r="O36" s="67"/>
+      <c r="O36" s="61"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B37" s="61"/>
+      <c r="B37" s="55"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="E37" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F37" s="8">
         <v>1</v>
       </c>
-      <c r="G37" s="53"/>
-      <c r="H37" s="54"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
       <c r="I37" s="9">
         <v>12</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K37" s="8"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="67"/>
+      <c r="O37" s="61"/>
     </row>
     <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="61"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
       <c r="E38" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" s="8">
         <v>2</v>
       </c>
-      <c r="G38" s="53">
+      <c r="G38" s="64">
         <v>8</v>
       </c>
-      <c r="H38" s="54"/>
+      <c r="H38" s="65"/>
       <c r="I38" s="9">
         <v>11</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="9"/>
-      <c r="O38" s="67"/>
+      <c r="O38" s="61"/>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B39" s="61"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F39" s="8">
         <v>3</v>
       </c>
-      <c r="G39" s="53"/>
-      <c r="H39" s="54"/>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="9">
         <v>10</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
       <c r="N39" s="9"/>
-      <c r="O39" s="67"/>
+      <c r="O39" s="61"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="61"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="8">
         <v>4</v>
       </c>
-      <c r="G40" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" s="54"/>
+      <c r="G40" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="65"/>
       <c r="I40" s="9">
         <v>9</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="9"/>
-      <c r="O40" s="67"/>
+      <c r="O40" s="61"/>
     </row>
     <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="61"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F41" s="8">
         <v>5</v>
       </c>
-      <c r="G41" s="53">
+      <c r="G41" s="64">
         <v>8</v>
       </c>
-      <c r="H41" s="54"/>
+      <c r="H41" s="65"/>
       <c r="I41" s="9">
         <v>8</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="9"/>
-      <c r="O41" s="67"/>
+      <c r="O41" s="61"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B42" s="61"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F42" s="8">
         <v>6</v>
       </c>
-      <c r="G42" s="53"/>
-      <c r="H42" s="54"/>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
       <c r="I42" s="9">
         <v>7</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
       <c r="N42" s="9"/>
-      <c r="O42" s="67"/>
+      <c r="O42" s="61"/>
     </row>
     <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="61"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="53">
+      <c r="G43" s="64">
         <v>8</v>
       </c>
-      <c r="H43" s="54"/>
+      <c r="H43" s="65"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="9"/>
-      <c r="O43" s="67"/>
+      <c r="O43" s="61"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B44" s="61"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="9"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="56"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="9"/>
-      <c r="O44" s="67"/>
+      <c r="O44" s="61"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B45" s="61"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2744,10 +2890,10 @@
       <c r="L45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
-      <c r="O45" s="67"/>
+      <c r="O45" s="61"/>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B46" s="61"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2760,10 +2906,10 @@
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="9"/>
-      <c r="O46" s="67"/>
+      <c r="O46" s="61"/>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B47" s="61"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2776,10 +2922,10 @@
       <c r="L47" s="8"/>
       <c r="M47" s="8"/>
       <c r="N47" s="9"/>
-      <c r="O47" s="67"/>
+      <c r="O47" s="61"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B48" s="61"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
@@ -2792,10 +2938,10 @@
       <c r="L48" s="8"/>
       <c r="M48" s="8"/>
       <c r="N48" s="9"/>
-      <c r="O48" s="67"/>
+      <c r="O48" s="61"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B49" s="61"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
@@ -2808,10 +2954,10 @@
       <c r="L49" s="8"/>
       <c r="M49" s="8"/>
       <c r="N49" s="9"/>
-      <c r="O49" s="67"/>
+      <c r="O49" s="61"/>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B50" s="61"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2824,10 +2970,10 @@
       <c r="L50" s="8"/>
       <c r="M50" s="8"/>
       <c r="N50" s="9"/>
-      <c r="O50" s="67"/>
+      <c r="O50" s="61"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B51" s="61"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
@@ -2840,10 +2986,10 @@
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
       <c r="N51" s="9"/>
-      <c r="O51" s="67"/>
+      <c r="O51" s="61"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B52" s="61"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2856,10 +3002,10 @@
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
       <c r="N52" s="9"/>
-      <c r="O52" s="67"/>
+      <c r="O52" s="61"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B53" s="61"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2872,10 +3018,10 @@
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
       <c r="N53" s="9"/>
-      <c r="O53" s="67"/>
+      <c r="O53" s="61"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B54" s="61"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2888,12 +3034,12 @@
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="9"/>
-      <c r="O54" s="67"/>
+      <c r="O54" s="61"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B55" s="61"/>
-      <c r="C55" s="66" t="s">
-        <v>86</v>
+      <c r="B55" s="55"/>
+      <c r="C55" s="60" t="s">
+        <v>85</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2906,12 +3052,12 @@
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="9"/>
-      <c r="O55" s="67"/>
+      <c r="O55" s="61"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B56" s="61"/>
-      <c r="C56" s="66" t="s">
-        <v>87</v>
+      <c r="B56" s="55"/>
+      <c r="C56" s="60" t="s">
+        <v>86</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2924,12 +3070,12 @@
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
       <c r="N56" s="9"/>
-      <c r="O56" s="67"/>
+      <c r="O56" s="61"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B57" s="61"/>
-      <c r="C57" s="66" t="s">
-        <v>88</v>
+      <c r="B57" s="55"/>
+      <c r="C57" s="60" t="s">
+        <v>87</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -2942,10 +3088,10 @@
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
       <c r="N57" s="9"/>
-      <c r="O57" s="67"/>
+      <c r="O57" s="61"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="59"/>
+      <c r="B58" s="53"/>
       <c r="C58" s="17"/>
       <c r="D58" s="17"/>
       <c r="E58" s="17"/>
@@ -2958,7 +3104,7 @@
       <c r="L58" s="17"/>
       <c r="M58" s="17"/>
       <c r="N58" s="37"/>
-      <c r="O58" s="60"/>
+      <c r="O58" s="54"/>
     </row>
   </sheetData>
   <sortState ref="L5:M9">
@@ -2979,6 +3125,1295 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="18" customWidth="1"/>
+    <col min="14" max="15" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="31"/>
+      <c r="L5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N5" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7">
+        <v>19</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="6">
+        <v>3</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7">
+        <v>18</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L7" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="6">
+        <v>5</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>16</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6">
+        <v>6</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>15</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>14</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="7">
+        <v>8</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="7">
+        <v>9</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12">
+        <v>12</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="15">
+        <v>10</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16">
+        <v>11</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M14" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B17" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B20" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7">
+        <v>20</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K20" s="62"/>
+      <c r="L20" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="6">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7">
+        <v>19</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6">
+        <v>3</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>18</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K22" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="6">
+        <v>4</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>17</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" s="6">
+        <v>5</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>16</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="6">
+        <v>6</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>15</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="7">
+        <v>7</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>14</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="7">
+        <v>8</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>13</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="7">
+        <v>9</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12">
+        <v>12</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N28" s="8"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="15">
+        <v>10</v>
+      </c>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16">
+        <v>11</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K29" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B32" s="56"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="58"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B33" s="55"/>
+      <c r="C33" s="70" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="61"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="55"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="61"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="55"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K35" s="60"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="55"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="68">
+        <v>8</v>
+      </c>
+      <c r="H36" s="69"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="55"/>
+      <c r="C37" s="8"/>
+      <c r="E37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="64"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="9">
+        <v>16</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="55"/>
+      <c r="C38" s="8"/>
+      <c r="E38" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2</v>
+      </c>
+      <c r="G38" s="64">
+        <v>8</v>
+      </c>
+      <c r="H38" s="65"/>
+      <c r="I38" s="9">
+        <v>15</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="55"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="8">
+        <v>3</v>
+      </c>
+      <c r="G39" s="64"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="9">
+        <v>14</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="61"/>
+    </row>
+    <row r="40" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
+      <c r="G40" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="65"/>
+      <c r="I40" s="9">
+        <v>13</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="61"/>
+    </row>
+    <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="55"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F41" s="8">
+        <v>5</v>
+      </c>
+      <c r="G41" s="64">
+        <v>8</v>
+      </c>
+      <c r="H41" s="65"/>
+      <c r="I41" s="9">
+        <v>12</v>
+      </c>
+      <c r="J41" s="18"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="61"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B42" s="55"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="8">
+        <v>6</v>
+      </c>
+      <c r="G42" s="64"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="9">
+        <v>11</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="61"/>
+    </row>
+    <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="10">
+        <v>7</v>
+      </c>
+      <c r="G43" s="64">
+        <v>8</v>
+      </c>
+      <c r="H43" s="65"/>
+      <c r="I43" s="9">
+        <v>10</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="61"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="55"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8">
+        <v>8</v>
+      </c>
+      <c r="G44" s="66"/>
+      <c r="H44" s="67"/>
+      <c r="I44" s="9">
+        <v>9</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="61"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B45" s="55"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="55"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="61"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="55"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="61"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="55"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="61"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="55"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="55"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="55"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="61"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="55"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="61"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="55"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="61"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" s="55"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="61"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="55"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="61"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="55"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="61"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="55"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="61"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="53"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="G43:H44"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE63"/>
   <sheetViews>
@@ -3007,73 +4442,73 @@
   <sheetData>
     <row r="2" spans="2:31" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="X2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="2:31" x14ac:dyDescent="0.15">
       <c r="R3" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="S3" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="S3" s="18" t="s">
+      <c r="T3" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="U3" s="18" t="s">
         <v>102</v>
-      </c>
-      <c r="U3" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="W3" s="43"/>
       <c r="X3" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Y3" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Z3" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AB3" s="43"/>
       <c r="AC3" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD3" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AE3" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:31" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
         <v>92</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>93</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>94</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>95</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>96</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>97</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>98</v>
-      </c>
-      <c r="O4" t="s">
-        <v>99</v>
       </c>
       <c r="R4" s="18">
         <v>8</v>
@@ -3088,28 +4523,28 @@
         <v>1</v>
       </c>
       <c r="W4" s="44" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="X4" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y4" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Z4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB4" s="44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AC4" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD4" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AE4" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3180,24 +4615,24 @@
         <v>0</v>
       </c>
       <c r="W6" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="Y6" s="39"/>
       <c r="Z6" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB6" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AC6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AD6" s="39"/>
       <c r="AE6" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3219,24 +4654,24 @@
         <v>1</v>
       </c>
       <c r="W8" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X8" s="9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Y8" s="39"/>
       <c r="Z8" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB8" s="45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC8" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AD8" s="39"/>
       <c r="AE8" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3255,28 +4690,28 @@
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.15">
       <c r="W10" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y10" s="39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Z10" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB10" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AC10" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AD10" s="39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AE10" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3343,24 +4778,24 @@
         <v>1</v>
       </c>
       <c r="W12" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X12" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y12" s="39"/>
       <c r="Z12" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB12" s="45" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AC12" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD12" s="39"/>
       <c r="AE12" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3380,28 +4815,28 @@
         <v>1</v>
       </c>
       <c r="W14" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X14" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="Y14" s="39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Z14" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AB14" s="45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AC14" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AD14" s="39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE14" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3418,28 +4853,28 @@
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.15">
       <c r="W16" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="X16" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y16" s="39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Z16" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB16" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC16" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AD16" s="39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AE16" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3508,24 +4943,24 @@
         <v>0</v>
       </c>
       <c r="W18" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X18" s="9"/>
       <c r="Y18" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z18" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB18" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AC18" s="9"/>
       <c r="AD18" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AE18" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3547,24 +4982,24 @@
       </c>
       <c r="E20" s="35"/>
       <c r="W20" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="X20" s="9"/>
       <c r="Y20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Z20" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB20" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC20" s="9"/>
       <c r="AD20" s="39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AE20" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3583,24 +5018,24 @@
     </row>
     <row r="22" spans="2:31" x14ac:dyDescent="0.15">
       <c r="W22" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X22" s="9"/>
       <c r="Y22" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Z22" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AB22" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AC22" s="9"/>
       <c r="AD22" s="39" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AE22" s="51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="2:31" ht="5.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -3669,24 +5104,24 @@
         <v>1</v>
       </c>
       <c r="W24" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X24" s="9"/>
       <c r="Y24" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="Z24" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AB24" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC24" s="9"/>
       <c r="AD24" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AE24" s="51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="2:31" ht="4.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -3707,23 +5142,23 @@
       <c r="E26" s="35">
         <v>1</v>
       </c>
-      <c r="W26" s="62"/>
+      <c r="W26" s="56"/>
       <c r="X26" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Y26" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Z26" s="44">
         <v>4</v>
       </c>
       <c r="AA26" s="9"/>
-      <c r="AB26" s="62"/>
+      <c r="AB26" s="56"/>
       <c r="AC26" s="36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD26" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AE26" s="44">
         <v>4</v>
@@ -3734,30 +5169,30 @@
         <v>1</v>
       </c>
       <c r="F27" s="35"/>
-      <c r="W27" s="61"/>
+      <c r="W27" s="55"/>
       <c r="X27" s="9"/>
-      <c r="Y27" s="63"/>
+      <c r="Y27" s="57"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="9"/>
-      <c r="AB27" s="61"/>
+      <c r="AB27" s="55"/>
       <c r="AC27" s="9"/>
-      <c r="AD27" s="63"/>
+      <c r="AD27" s="57"/>
       <c r="AE27" s="45"/>
     </row>
     <row r="28" spans="2:31" x14ac:dyDescent="0.15">
-      <c r="W28" s="59"/>
+      <c r="W28" s="53"/>
       <c r="X28" s="37"/>
       <c r="Y28" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z28" s="46">
         <v>7</v>
       </c>
       <c r="AA28" s="9"/>
-      <c r="AB28" s="59"/>
+      <c r="AB28" s="53"/>
       <c r="AC28" s="37"/>
       <c r="AD28" s="40" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AE28" s="46">
         <v>7</v>

--- a/doc/clock.xlsx
+++ b/doc/clock.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="16155" windowHeight="8070" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="16155" windowHeight="8070" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="5643AR-30CD3" sheetId="1" r:id="rId1"/>
     <sheet name="OSL40391-LX" sheetId="5" r:id="rId2"/>
-    <sheet name="decode" sheetId="4" r:id="rId3"/>
+    <sheet name="5643AR-30CD3 12H" sheetId="6" r:id="rId3"/>
+    <sheet name="OSL40391-LX  12H" sheetId="7" r:id="rId4"/>
+    <sheet name="decode" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="195">
   <si>
     <t>VDD</t>
     <phoneticPr fontId="2"/>
@@ -783,6 +785,30 @@
   </si>
   <si>
     <t>clock_cnf2a</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AMPM</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C3,C24</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C234</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>12H version</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>24H version</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1064,7 +1090,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1257,6 +1283,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
@@ -1275,8 +1304,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1383,13 +1427,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>119902</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76251</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>28399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1421,14 +1465,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>31938</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>123039</xdr:rowOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123038</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1464,13 +1508,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>258509</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>449008</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1502,14 +1546,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>3106</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>156125</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>168519</xdr:rowOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>431</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1528,6 +1572,168 @@
         <a:xfrm>
           <a:off x="224117" y="7903253"/>
           <a:ext cx="4022155" cy="1173512"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>119902</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76251</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>28399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="272302" y="7705725"/>
+          <a:ext cx="3880649" cy="1409524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31938</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>123038</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4219575" y="7918638"/>
+          <a:ext cx="2331384" cy="1119801"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>258509</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449008</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4335209" y="8114179"/>
+          <a:ext cx="2362199" cy="995083"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>3106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156125</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219635" y="8061256"/>
+          <a:ext cx="4013190" cy="1194113"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1826,10 +2032,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:O58"/>
+  <dimension ref="B2:O60"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1851,842 +2057,805 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="46">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>46</v>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>50</v>
+        <v>138</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>80</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="N8" s="46">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>75</v>
+        <v>62</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>81</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
-        <v>16</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="33" t="s">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>90</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7">
-        <v>15</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
-        <v>14</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>76</v>
+        <v>53</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
-        <v>13</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="12">
-        <v>12</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>163</v>
+      <c r="I13" s="7">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>72</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>166</v>
+        <v>25</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="17" t="s">
+      <c r="D16" s="29"/>
+      <c r="E16" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F16" s="15">
         <v>10</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
         <v>11</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="M14" s="18" t="s">
+      <c r="M16" s="18" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="34" t="s">
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="17" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>19</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="6">
-        <v>3</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63" t="s">
+        <v>0</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>131</v>
+        <v>70</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>79</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>134</v>
+        <v>82</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
-        <v>16</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="27" t="s">
         <v>71</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B25" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
-        <v>15</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>71</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B26" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="28"/>
+        <v>67</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>78</v>
+      </c>
       <c r="E26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
-        <v>14</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="33" t="s">
         <v>71</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B27" s="18" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
-        <v>13</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>165</v>
+        <v>51</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B28" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F28" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="12">
-        <v>12</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>18</v>
+      <c r="I28" s="7">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="K28" s="27" t="s">
-        <v>163</v>
+        <v>71</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>74</v>
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B29" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12">
+        <v>12</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="17" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F31" s="15">
         <v>10</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <v>11</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K31" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="M29" s="18" t="s">
+      <c r="M31" s="18" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="56"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="58"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="55"/>
-      <c r="C33" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="61"/>
-    </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="55"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="61"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
-      <c r="C35" s="59"/>
+      <c r="C35" s="59" t="s">
+        <v>169</v>
+      </c>
       <c r="D35" s="60"/>
-      <c r="E35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="K35" s="60"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="9"/>
       <c r="O35" s="61"/>
     </row>
-    <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="68">
-        <v>8</v>
-      </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="8"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
@@ -2694,23 +2863,23 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="55"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="9">
-        <v>12</v>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="K37" s="8"/>
+        <v>158</v>
+      </c>
+      <c r="K37" s="60"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="9"/>
@@ -2720,22 +2889,14 @@
       <c r="B38" s="55"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F38" s="8">
-        <v>2</v>
-      </c>
-      <c r="G38" s="64">
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="69">
         <v>8</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="9">
-        <v>11</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>40</v>
-      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
@@ -2747,18 +2908,18 @@
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F39" s="8">
-        <v>3</v>
-      </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="9">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="K39" s="8"/>
       <c r="L39" s="8"/>
@@ -2771,20 +2932,20 @@
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F40" s="8">
-        <v>4</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="65"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="65">
+        <v>8</v>
+      </c>
+      <c r="H40" s="66"/>
       <c r="I40" s="9">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
@@ -2792,25 +2953,23 @@
       <c r="N40" s="9"/>
       <c r="O40" s="61"/>
     </row>
-    <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="55"/>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F41" s="8">
-        <v>5</v>
-      </c>
-      <c r="G41" s="64">
-        <v>8</v>
-      </c>
-      <c r="H41" s="65"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K41" s="8"/>
       <c r="L41" s="8"/>
@@ -2818,23 +2977,25 @@
       <c r="N41" s="9"/>
       <c r="O41" s="61"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="55"/>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F42" s="8">
-        <v>6</v>
-      </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="66"/>
       <c r="I42" s="9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K42" s="8"/>
       <c r="L42" s="8"/>
@@ -2846,14 +3007,22 @@
       <c r="B43" s="55"/>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="64">
+      <c r="E43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5</v>
+      </c>
+      <c r="G43" s="65">
         <v>8</v>
       </c>
-      <c r="H43" s="65"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="9">
+        <v>8</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -2864,26 +3033,36 @@
       <c r="B44" s="55"/>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="67"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="9">
+        <v>7</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>42</v>
+      </c>
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="9"/>
       <c r="O44" s="61"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="55"/>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="G45" s="65">
+        <v>8</v>
+      </c>
+      <c r="H45" s="66"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="8"/>
@@ -2898,8 +3077,8 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="8"/>
@@ -3038,9 +3217,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="55"/>
-      <c r="C55" s="60" t="s">
-        <v>85</v>
-      </c>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
@@ -3056,9 +3233,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="55"/>
-      <c r="C56" s="60" t="s">
-        <v>86</v>
-      </c>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
@@ -3075,7 +3250,7 @@
     <row r="57" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B57" s="55"/>
       <c r="C57" s="60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3091,31 +3266,67 @@
       <c r="O57" s="61"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="53"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="55"/>
+      <c r="C59" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="61"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="53"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="54"/>
     </row>
   </sheetData>
   <sortState ref="L5:M9">
     <sortCondition descending="1" ref="L5"/>
   </sortState>
   <mergeCells count="5">
-    <mergeCell ref="G41:H42"/>
     <mergeCell ref="G43:H44"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G36:H37"/>
+    <mergeCell ref="G45:H46"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G40:H41"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3126,10 +3337,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O58"/>
+  <dimension ref="A2:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3151,844 +3362,807 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="75" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I6" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="J4" s="18" t="s">
+      <c r="J6" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K6" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="L4" s="18" t="s">
+      <c r="L6" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M6" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N6" s="18" t="s">
         <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="N5" s="44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="46">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="6">
-        <v>3</v>
-      </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7">
-        <v>18</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="L7" s="20" t="s">
-        <v>175</v>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19" t="s">
+        <v>0</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>38</v>
+        <v>138</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B8" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F8" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>76</v>
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>77</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>178</v>
+        <v>59</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>39</v>
+        <v>59</v>
+      </c>
+      <c r="N8" s="46">
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>75</v>
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>72</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F9" s="6">
-        <v>5</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7">
-        <v>16</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="32" t="s">
         <v>76</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B10" s="18" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F10" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7">
-        <v>15</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K10" s="27" t="s">
-        <v>72</v>
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>24</v>
+        <v>178</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B11" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="28"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
       <c r="E11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7">
-        <v>14</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>72</v>
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>76</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>25</v>
+        <v>170</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B12" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="48" t="s">
-        <v>76</v>
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>75</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="7">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
       </c>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7">
-        <v>13</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K12" s="27" t="s">
-        <v>162</v>
+        <v>72</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B13" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F13" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
-      <c r="I13" s="12">
-        <v>12</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="27" t="s">
+      <c r="I13" s="7">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="32" t="s">
         <v>72</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
         <v>9</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="17" t="s">
+      <c r="C16" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="15">
+      <c r="D16" s="29"/>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15">
         <v>10</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16">
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
         <v>11</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="30" t="s">
+      <c r="K16" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L14" s="23" t="s">
+      <c r="L16" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="M14" s="8" t="s">
+      <c r="M16" s="8" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="34" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D19" s="18" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="17" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
         <v>158</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D21" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="17" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="J19" s="17" t="s">
+      <c r="J21" s="17" t="s">
         <v>159</v>
       </c>
-      <c r="K19" s="17" t="s">
+      <c r="K21" s="17" t="s">
         <v>168</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L21" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M21" s="17" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7">
-        <v>20</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K20" s="62"/>
-      <c r="L20" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="6">
-        <v>2</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7">
-        <v>19</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B22" s="18" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F22" s="6">
-        <v>3</v>
-      </c>
-      <c r="G22" s="9"/>
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="M22" s="8" t="s">
-        <v>37</v>
+        <v>0</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
-        <v>42</v>
+      <c r="B23" s="18" t="s">
+        <v>60</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F23" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="32" t="s">
-        <v>71</v>
+        <v>3</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>76</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="M23" s="8" t="s">
-        <v>38</v>
+        <v>82</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="8" t="s">
-        <v>34</v>
+      <c r="B24" s="18" t="s">
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F24" s="6">
-        <v>5</v>
-      </c>
-      <c r="G24" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7">
-        <v>16</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K24" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="27" t="s">
         <v>71</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B25" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D25" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F25" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7">
-        <v>15</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K25" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="32" t="s">
         <v>71</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M25" s="8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="28"/>
+      <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>71</v>
+      </c>
       <c r="E26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="7">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7">
-        <v>14</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="33" t="s">
         <v>71</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M26" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O26" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.15">
       <c r="B27" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D27" s="27" t="s">
         <v>71</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="7">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7">
-        <v>13</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="K27" s="27" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="M27" s="18" t="s">
-        <v>16</v>
+        <v>177</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="E28" s="13" t="s">
-        <v>19</v>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="F28" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
-      <c r="I28" s="12">
+      <c r="I28" s="7">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12">
         <v>12</v>
       </c>
-      <c r="J28" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K28" s="27" t="s">
+      <c r="K30" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L30" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="M28" s="18" t="s">
+      <c r="M30" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N28" s="8"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="18" t="s">
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C31" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="17" t="s">
+      <c r="D31" s="29"/>
+      <c r="E31" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F31" s="15">
         <v>10</v>
       </c>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16">
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
         <v>11</v>
       </c>
-      <c r="J29" s="14" t="s">
+      <c r="J31" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K29" s="30" t="s">
+      <c r="K31" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="23" t="s">
+      <c r="L31" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="M29" s="8" t="s">
+      <c r="M31" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="56"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="36"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="58"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="55"/>
-      <c r="C33" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="61"/>
-    </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="55"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="61"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="58"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B35" s="55"/>
-      <c r="C35" s="59"/>
+      <c r="C35" s="64" t="s">
+        <v>186</v>
+      </c>
       <c r="D35" s="60"/>
-      <c r="E35" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>158</v>
-      </c>
       <c r="K35" s="60"/>
       <c r="L35" s="8"/>
       <c r="M35" s="8"/>
       <c r="N35" s="9"/>
       <c r="O35" s="61"/>
     </row>
-    <row r="36" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B36" s="55"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="68">
-        <v>8</v>
-      </c>
-      <c r="H36" s="69"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="8"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="K36" s="60"/>
       <c r="L36" s="8"/>
       <c r="M36" s="8"/>
       <c r="N36" s="9"/>
@@ -3996,21 +4170,23 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B37" s="55"/>
-      <c r="C37" s="8"/>
-      <c r="E37" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F37" s="8">
-        <v>1</v>
-      </c>
-      <c r="G37" s="64"/>
-      <c r="H37" s="65"/>
-      <c r="I37" s="9">
-        <v>16</v>
-      </c>
-      <c r="J37" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="60"/>
       <c r="L37" s="8"/>
       <c r="M37" s="8"/>
       <c r="N37" s="9"/>
@@ -4019,22 +4195,16 @@
     <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="55"/>
       <c r="C38" s="8"/>
-      <c r="E38" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="8">
-        <v>2</v>
-      </c>
-      <c r="G38" s="64">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="69">
         <v>8</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="9">
-        <v>15</v>
-      </c>
-      <c r="J38" s="8" t="s">
-        <v>34</v>
-      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="8"/>
       <c r="L38" s="8"/>
       <c r="M38" s="8"/>
       <c r="N38" s="9"/>
@@ -4044,18 +4214,18 @@
       <c r="B39" s="55"/>
       <c r="C39" s="8"/>
       <c r="E39" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F39" s="8">
-        <v>3</v>
-      </c>
-      <c r="G39" s="64"/>
-      <c r="H39" s="65"/>
+        <v>1</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
       <c r="I39" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J39" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L39" s="8"/>
       <c r="M39" s="8"/>
@@ -4066,64 +4236,66 @@
       <c r="B40" s="55"/>
       <c r="C40" s="8"/>
       <c r="E40" s="8" t="s">
-        <v>172</v>
+        <v>38</v>
       </c>
       <c r="F40" s="8">
-        <v>4</v>
-      </c>
-      <c r="G40" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" s="65"/>
+        <v>2</v>
+      </c>
+      <c r="G40" s="65">
+        <v>8</v>
+      </c>
+      <c r="H40" s="66"/>
       <c r="I40" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J40" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L40" s="8"/>
       <c r="M40" s="8"/>
       <c r="N40" s="9"/>
       <c r="O40" s="61"/>
     </row>
-    <row r="41" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B41" s="55"/>
       <c r="C41" s="8"/>
       <c r="E41" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F41" s="8">
-        <v>5</v>
-      </c>
-      <c r="G41" s="64">
-        <v>8</v>
-      </c>
-      <c r="H41" s="65"/>
+        <v>3</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="9">
-        <v>12</v>
-      </c>
-      <c r="J41" s="18"/>
+        <v>14</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="9"/>
       <c r="O41" s="61"/>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="55"/>
       <c r="C42" s="8"/>
       <c r="E42" s="8" t="s">
-        <v>39</v>
+        <v>172</v>
       </c>
       <c r="F42" s="8">
-        <v>6</v>
-      </c>
-      <c r="G42" s="64"/>
-      <c r="H42" s="65"/>
+        <v>4</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="66"/>
       <c r="I42" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J42" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L42" s="8"/>
       <c r="M42" s="8"/>
@@ -4133,23 +4305,21 @@
     <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="55"/>
       <c r="C43" s="8"/>
-      <c r="D43" s="18" t="s">
-        <v>9</v>
-      </c>
       <c r="E43" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F43" s="10">
-        <v>7</v>
-      </c>
-      <c r="G43" s="64">
+        <v>31</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5</v>
+      </c>
+      <c r="G43" s="65">
         <v>8</v>
       </c>
-      <c r="H43" s="65"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="9">
-        <v>10</v>
-      </c>
-      <c r="J43" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="8"/>
       <c r="N43" s="9"/>
       <c r="O43" s="61"/>
@@ -4157,35 +4327,45 @@
     <row r="44" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B44" s="55"/>
       <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
       <c r="E44" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F44" s="8">
-        <v>8</v>
-      </c>
-      <c r="G44" s="66"/>
-      <c r="H44" s="67"/>
+        <v>6</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="9">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="L44" s="8"/>
       <c r="M44" s="8"/>
       <c r="N44" s="9"/>
       <c r="O44" s="61"/>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="55"/>
       <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="D45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="10">
+        <v>7</v>
+      </c>
+      <c r="G45" s="65">
+        <v>8</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="9">
+        <v>10</v>
+      </c>
+      <c r="J45" s="8"/>
       <c r="M45" s="8"/>
       <c r="N45" s="9"/>
       <c r="O45" s="61"/>
@@ -4194,13 +4374,17 @@
       <c r="B46" s="55"/>
       <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="8">
+        <v>8</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="9">
+        <v>9</v>
+      </c>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="9"/>
@@ -4336,7 +4520,7 @@
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B55" s="55"/>
-      <c r="C55" s="60"/>
+      <c r="C55" s="8"/>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="9"/>
@@ -4352,7 +4536,7 @@
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B56" s="55"/>
-      <c r="C56" s="60"/>
+      <c r="C56" s="8"/>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="9"/>
@@ -4383,28 +4567,60 @@
       <c r="O57" s="61"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B58" s="53"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
-      <c r="K58" s="17"/>
-      <c r="L58" s="17"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="37"/>
-      <c r="O58" s="54"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="61"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="53"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="G36:H37"/>
     <mergeCell ref="G38:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H42"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:H42"/>
     <mergeCell ref="G43:H44"/>
+    <mergeCell ref="G45:H46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4415,10 +4631,2606 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:O60"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="18" customWidth="1"/>
+    <col min="14" max="15" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>20</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>18</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12">
+        <v>12</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="15">
+        <v>10</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <v>11</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="56"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="58"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="55"/>
+      <c r="C35" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="55"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="55"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="55"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="69">
+        <v>8</v>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="55"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="9">
+        <v>12</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="61"/>
+    </row>
+    <row r="40" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="65">
+        <v>8</v>
+      </c>
+      <c r="H40" s="66"/>
+      <c r="I40" s="9">
+        <v>11</v>
+      </c>
+      <c r="J40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="8"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="61"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41" s="55"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="9">
+        <v>10</v>
+      </c>
+      <c r="J41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="61"/>
+    </row>
+    <row r="42" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="55"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="66"/>
+      <c r="I42" s="9">
+        <v>9</v>
+      </c>
+      <c r="J42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="61"/>
+    </row>
+    <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5</v>
+      </c>
+      <c r="G43" s="65">
+        <v>8</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="9">
+        <v>8</v>
+      </c>
+      <c r="J43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="61"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="55"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="9">
+        <v>7</v>
+      </c>
+      <c r="J44" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="61"/>
+    </row>
+    <row r="45" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="55"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="65">
+        <v>8</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="55"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="61"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="55"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="61"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="55"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="61"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="55"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="55"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="55"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="61"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="55"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="61"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="55"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="61"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" s="55"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="61"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="55"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="61"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="55"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="61"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="55"/>
+      <c r="C57" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="61"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="55"/>
+      <c r="C58" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="55"/>
+      <c r="C59" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="61"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="53"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="G45:H46"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:O60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="8.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="18" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" customWidth="1"/>
+    <col min="8" max="8" width="4.5" customWidth="1"/>
+    <col min="9" max="9" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="7.625" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="18" customWidth="1"/>
+    <col min="14" max="15" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B2" s="75" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="34" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3">
+        <v>20</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="N7" s="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="6">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7">
+        <v>19</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N8" s="46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="6">
+        <v>3</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7">
+        <v>18</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6">
+        <v>4</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7">
+        <v>16</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6">
+        <v>6</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7">
+        <v>15</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="28"/>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="7">
+        <v>7</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7">
+        <v>14</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="7">
+        <v>8</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7">
+        <v>13</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="71" t="s">
+        <v>189</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="7">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12">
+        <v>12</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16">
+        <v>11</v>
+      </c>
+      <c r="J16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B19" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B21" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B22" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7">
+        <v>20</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="62"/>
+      <c r="L22" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="M22" s="18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B23" s="71" t="s">
+        <v>191</v>
+      </c>
+      <c r="C23" s="72" t="s">
+        <v>192</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="6">
+        <v>2</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7">
+        <v>19</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K23" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L23" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="6">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7">
+        <v>18</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K24" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L24" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="M24" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B25" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="6">
+        <v>4</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7">
+        <v>17</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K25" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M25" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="6">
+        <v>5</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7">
+        <v>16</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="L26" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B27" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="6">
+        <v>6</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7">
+        <v>15</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="28"/>
+      <c r="E28" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="7">
+        <v>7</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7">
+        <v>14</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L28" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B29" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="7">
+        <v>8</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7">
+        <v>13</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="L29" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12">
+        <v>12</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" s="8"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B31" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="15">
+        <v>10</v>
+      </c>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16">
+        <v>11</v>
+      </c>
+      <c r="J31" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="M31" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B34" s="56"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="58"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B35" s="55"/>
+      <c r="C35" s="64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="61"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B36" s="55"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="61"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B37" s="55"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="K37" s="60"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="61"/>
+    </row>
+    <row r="38" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="55"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="69">
+        <v>8</v>
+      </c>
+      <c r="H38" s="70"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="61"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B39" s="55"/>
+      <c r="C39" s="8"/>
+      <c r="E39" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="65"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="9">
+        <v>16</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="61"/>
+    </row>
+    <row r="40" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="55"/>
+      <c r="C40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="8">
+        <v>2</v>
+      </c>
+      <c r="G40" s="65">
+        <v>8</v>
+      </c>
+      <c r="H40" s="66"/>
+      <c r="I40" s="9">
+        <v>15</v>
+      </c>
+      <c r="J40" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="61"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B41" s="55"/>
+      <c r="C41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F41" s="8">
+        <v>3</v>
+      </c>
+      <c r="G41" s="65"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="9">
+        <v>14</v>
+      </c>
+      <c r="J41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="61"/>
+    </row>
+    <row r="42" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="55"/>
+      <c r="C42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
+      <c r="G42" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="66"/>
+      <c r="I42" s="9">
+        <v>13</v>
+      </c>
+      <c r="J42" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="61"/>
+    </row>
+    <row r="43" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="55"/>
+      <c r="C43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F43" s="8">
+        <v>5</v>
+      </c>
+      <c r="G43" s="65">
+        <v>8</v>
+      </c>
+      <c r="H43" s="66"/>
+      <c r="I43" s="9">
+        <v>12</v>
+      </c>
+      <c r="J43" s="18"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="61"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B44" s="55"/>
+      <c r="C44" s="8"/>
+      <c r="E44" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="8">
+        <v>6</v>
+      </c>
+      <c r="G44" s="65"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="9">
+        <v>11</v>
+      </c>
+      <c r="J44" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="61"/>
+    </row>
+    <row r="45" spans="2:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="55"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" s="10">
+        <v>7</v>
+      </c>
+      <c r="G45" s="65">
+        <v>8</v>
+      </c>
+      <c r="H45" s="66"/>
+      <c r="I45" s="9">
+        <v>10</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="61"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B46" s="55"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="8">
+        <v>8</v>
+      </c>
+      <c r="G46" s="67"/>
+      <c r="H46" s="68"/>
+      <c r="I46" s="9">
+        <v>9</v>
+      </c>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="61"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B47" s="55"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="61"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B48" s="55"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="61"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B49" s="55"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="61"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B50" s="55"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="61"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B51" s="55"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="61"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B52" s="55"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="61"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B53" s="55"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="61"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B54" s="55"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="61"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B55" s="55"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="61"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B56" s="55"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="61"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B57" s="55"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="61"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B58" s="55"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="61"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B59" s="55"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="61"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B60" s="53"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G38:H39"/>
+    <mergeCell ref="G40:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H44"/>
+    <mergeCell ref="G45:H46"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AE63"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA54" sqref="AA54"/>
+      <selection activeCell="AG31" sqref="AG31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
